--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3776.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3776.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.555309162601377</v>
+        <v>0.5388969779014587</v>
       </c>
       <c r="B1">
-        <v>2.713936799272749</v>
+        <v>4.222954273223877</v>
       </c>
       <c r="C1">
-        <v>3.098068387797595</v>
+        <v>3.970008611679077</v>
       </c>
       <c r="D1">
-        <v>3.6487564972022</v>
+        <v>1.336737990379333</v>
       </c>
       <c r="E1">
-        <v>2.034207637158496</v>
+        <v>0.7902191877365112</v>
       </c>
     </row>
   </sheetData>
